--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AD/20/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.922</v>
+        <v>-7.632</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.769</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.812</v>
+        <v>-21.705</v>
       </c>
       <c r="B11" t="n">
         <v>3.8</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.542</v>
+        <v>-21.657</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.407999999999999</v>
+        <v>-7.391</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.872</v>
+        <v>-21.932</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.724000000000001</v>
+        <v>-8.114999999999998</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.82</v>
+        <v>-21.427</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.434</v>
+        <v>-21.777</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.726</v>
+        <v>-21.709</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.358000000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.754</v>
+        <v>-21.664</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.786</v>
+        <v>-7.858</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.78</v>
+        <v>-20.339</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.698</v>
+        <v>-7.778</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.42</v>
+        <v>-19.741</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.795999999999999</v>
+        <v>-7.185999999999998</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.622</v>
+        <v>-7.858</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.76</v>
+        <v>-7.539</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.022</v>
+        <v>-21.694</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.590000000000001</v>
+        <v>-7.87</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.68</v>
+        <v>-21.703</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.08</v>
+        <v>-22.196</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.11</v>
+        <v>-22.086</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.23</v>
+        <v>-8.289999999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.606</v>
+        <v>-21.565</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.606</v>
+        <v>-21.721</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.052</v>
+        <v>-21.445</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.836</v>
+        <v>-19.921</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-6.856</v>
+        <v>-7.309</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-22.164</v>
+        <v>-21.774</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1848,7 +1848,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.483999999999998</v>
+        <v>-8.289</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.268</v>
+        <v>-22.035</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.47</v>
+        <v>-21.564</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.034</v>
+        <v>-21.259</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.094</v>
+        <v>-20.326</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.356</v>
+        <v>-8.238000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.859999999999999</v>
+        <v>-7.752</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
